--- a/ferry/Staten Island Ferry Passenger Counts - by Month/2020/SIF Monthly Ridership_2020_05.xlsx
+++ b/ferry/Staten Island Ferry Passenger Counts - by Month/2020/SIF Monthly Ridership_2020_05.xlsx
@@ -1,31 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\OPEN DATA\Datasets\1. Datasets&amp; BusinessDoc_Manual\Ferry\3. Ferry Ridership\SI Ferry Ridership by Month\2020 SIF Ridership\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Y_Ma2\Desktop\GITHUB\td-trends\ferry\Staten Island Ferry Passenger Counts - by Month\2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA30DC7-0526-4DA1-BF79-A5BFD1CAB14C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14760" windowHeight="7875"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="TOTAL" sheetId="1" r:id="rId1"/>
+    <sheet name="TOTALS" sheetId="1" r:id="rId1"/>
     <sheet name="WEEKDAY-WEEKEND" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
   <si>
     <t>WHT</t>
   </si>
@@ -71,11 +80,14 @@
   <si>
     <t>Difference</t>
   </si>
+  <si>
+    <t>Date</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -254,7 +266,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -307,6 +319,7 @@
     <xf numFmtId="1" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="17" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -622,829 +635,827 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:G40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B4:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34:D35"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="12.7109375" style="1"/>
+    <col min="1" max="6" width="12.6640625" style="1"/>
     <col min="7" max="7" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="16384" width="12.7109375" style="1"/>
+    <col min="8" max="16384" width="12.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="18">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="19">
         <v>43952</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-    </row>
-    <row r="4" spans="2:7" ht="30" x14ac:dyDescent="0.3">
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+    </row>
+    <row r="5" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="C5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="6" t="str">
-        <f>CHOOSE(WEEKDAY(C5),"SUN","MON","TUE","WED","THU","FRI","SAT")</f>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="str">
+        <f>CHOOSE(WEEKDAY(C6),"SUN","MON","TUE","WED","THU","FRI","SAT")</f>
         <v>FRI</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C6" s="3">
         <v>43952</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D6" s="2">
         <v>4036</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E6" s="2">
         <v>4015</v>
       </c>
-      <c r="F5" s="2">
-        <f>SUM(D5:E5)</f>
+      <c r="F6" s="2">
+        <f>SUM(D6:E6)</f>
         <v>8051</v>
       </c>
-      <c r="G5" s="1">
-        <f>D5-E5</f>
+      <c r="G6" s="1">
+        <f>D6-E6</f>
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="6" t="str">
-        <f t="shared" ref="B6:B35" si="0">CHOOSE(WEEKDAY(C6),"SUN","MON","TUE","WED","THU","FRI","SAT")</f>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="str">
+        <f t="shared" ref="B7:B36" si="0">CHOOSE(WEEKDAY(C7),"SUN","MON","TUE","WED","THU","FRI","SAT")</f>
         <v>SAT</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C7" s="3">
         <v>43953</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D7" s="2">
         <v>3641</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E7" s="2">
         <v>3292</v>
       </c>
-      <c r="F6" s="2">
-        <f t="shared" ref="F6:F36" si="1">SUM(D6:E6)</f>
+      <c r="F7" s="2">
+        <f t="shared" ref="F7:F37" si="1">SUM(D7:E7)</f>
         <v>6933</v>
       </c>
-      <c r="G6" s="1">
-        <f t="shared" ref="G6:G35" si="2">D6-E6</f>
+      <c r="G7" s="1">
+        <f t="shared" ref="G7:G36" si="2">D7-E7</f>
         <v>349</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="6" t="str">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="6" t="str">
         <f t="shared" si="0"/>
         <v>SUN</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C8" s="3">
         <v>43954</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D8" s="2">
         <v>3144</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E8" s="2">
         <v>2765</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F8" s="2">
         <f t="shared" si="1"/>
         <v>5909</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G8" s="1">
         <f t="shared" si="2"/>
         <v>379</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="6" t="str">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="str">
         <f t="shared" si="0"/>
         <v>MON</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C9" s="3">
         <v>43955</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D9" s="2">
         <v>4491</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E9" s="2">
         <v>4387</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F9" s="2">
         <f t="shared" si="1"/>
         <v>8878</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G9" s="1">
         <f t="shared" si="2"/>
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="6" t="str">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="6" t="str">
         <f t="shared" si="0"/>
         <v>TUE</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C10" s="3">
         <v>43956</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D10" s="2">
         <v>4417</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E10" s="2">
         <v>4241</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F10" s="2">
         <f t="shared" si="1"/>
         <v>8658</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G10" s="1">
         <f t="shared" si="2"/>
         <v>176</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="6" t="str">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="str">
         <f t="shared" si="0"/>
         <v>WED</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C11" s="3">
         <v>43957</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D11" s="2">
         <v>4268</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E11" s="2">
         <v>4029</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F11" s="2">
         <f t="shared" si="1"/>
         <v>8297</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G11" s="1">
         <f t="shared" si="2"/>
         <v>239</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="6" t="str">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="6" t="str">
         <f t="shared" si="0"/>
         <v>THU</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C12" s="3">
         <v>43958</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D12" s="2">
         <v>4708</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E12" s="2">
         <v>4534</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F12" s="2">
         <f t="shared" si="1"/>
         <v>9242</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G12" s="1">
         <f t="shared" si="2"/>
         <v>174</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="6" t="str">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="6" t="str">
         <f t="shared" si="0"/>
         <v>FRI</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C13" s="3">
         <v>43959</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D13" s="2">
         <v>4456</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E13" s="2">
         <v>4192</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F13" s="2">
         <f t="shared" si="1"/>
         <v>8648</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G13" s="1">
         <f t="shared" si="2"/>
         <v>264</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="6" t="str">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="6" t="str">
         <f t="shared" si="0"/>
         <v>SAT</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C14" s="3">
         <v>43960</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D14" s="2">
         <v>3164</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E14" s="2">
         <v>3055</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F14" s="2">
         <f t="shared" si="1"/>
         <v>6219</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G14" s="1">
         <f t="shared" si="2"/>
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="6" t="str">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="str">
         <f t="shared" si="0"/>
         <v>SUN</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C15" s="3">
         <v>43961</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D15" s="2">
         <v>3443</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E15" s="2">
         <v>3118</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F15" s="2">
         <f t="shared" si="1"/>
         <v>6561</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G15" s="1">
         <f t="shared" si="2"/>
         <v>325</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="6" t="str">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="6" t="str">
         <f t="shared" si="0"/>
         <v>MON</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C16" s="3">
         <v>43962</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D16" s="2">
         <v>4387</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E16" s="2">
         <v>4289</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F16" s="2">
         <f t="shared" si="1"/>
         <v>8676</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G16" s="1">
         <f t="shared" si="2"/>
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B16" s="6" t="str">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="6" t="str">
         <f t="shared" si="0"/>
         <v>TUE</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C17" s="3">
         <v>43963</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D17" s="2">
         <v>4467</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E17" s="2">
         <v>4440</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F17" s="2">
         <f t="shared" si="1"/>
         <v>8907</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G17" s="1">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="6" t="str">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="6" t="str">
         <f t="shared" si="0"/>
         <v>WED</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C18" s="3">
         <v>43964</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D18" s="2">
         <v>4416</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E18" s="2">
         <v>4607</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F18" s="2">
         <f t="shared" si="1"/>
         <v>9023</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G18" s="1">
         <f t="shared" si="2"/>
         <v>-191</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="6" t="str">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="6" t="str">
         <f t="shared" si="0"/>
         <v>THU</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C19" s="3">
         <v>43965</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D19" s="2">
         <v>4527</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E19" s="2">
         <v>4587</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F19" s="2">
         <f t="shared" si="1"/>
         <v>9114</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G19" s="1">
         <f t="shared" si="2"/>
         <v>-60</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="6" t="str">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="6" t="str">
         <f t="shared" si="0"/>
         <v>FRI</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C20" s="3">
         <v>43966</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D20" s="2">
         <v>4777</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E20" s="2">
         <v>4884</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F20" s="2">
         <f t="shared" si="1"/>
         <v>9661</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G20" s="1">
         <f t="shared" si="2"/>
         <v>-107</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="6" t="str">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="6" t="str">
         <f t="shared" si="0"/>
         <v>SAT</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C21" s="3">
         <v>43967</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D21" s="2">
         <v>4132</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E21" s="2">
         <v>3872</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F21" s="2">
         <f t="shared" si="1"/>
         <v>8004</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G21" s="1">
         <f t="shared" si="2"/>
         <v>260</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B21" s="6" t="str">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="6" t="str">
         <f t="shared" si="0"/>
         <v>SUN</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C22" s="3">
         <v>43968</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D22" s="2">
         <v>3374</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E22" s="2">
         <v>3068</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F22" s="2">
         <f t="shared" si="1"/>
         <v>6442</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G22" s="1">
         <f t="shared" si="2"/>
         <v>306</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B22" s="6" t="str">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="6" t="str">
         <f t="shared" si="0"/>
         <v>MON</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C23" s="3">
         <v>43969</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D23" s="2">
         <v>4932</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E23" s="2">
         <v>4792</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F23" s="2">
         <f t="shared" si="1"/>
         <v>9724</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G23" s="1">
         <f t="shared" si="2"/>
         <v>140</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B23" s="6" t="str">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="6" t="str">
         <f t="shared" si="0"/>
         <v>TUE</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C24" s="3">
         <v>43970</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D24" s="2">
         <v>5102</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E24" s="2">
         <v>4836</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F24" s="2">
         <f t="shared" si="1"/>
         <v>9938</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G24" s="1">
         <f t="shared" si="2"/>
         <v>266</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B24" s="6" t="str">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="6" t="str">
         <f t="shared" si="0"/>
         <v>WED</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C25" s="3">
         <v>43971</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D25" s="2">
         <v>5051</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E25" s="2">
         <v>4854</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F25" s="2">
         <f t="shared" si="1"/>
         <v>9905</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G25" s="1">
         <f t="shared" si="2"/>
         <v>197</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B25" s="6" t="str">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="6" t="str">
         <f t="shared" si="0"/>
         <v>THU</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C26" s="3">
         <v>43972</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D26" s="2">
         <v>5246</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E26" s="2">
         <v>4973</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F26" s="2">
         <f t="shared" si="1"/>
         <v>10219</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G26" s="1">
         <f t="shared" si="2"/>
         <v>273</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B26" s="6" t="str">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="6" t="str">
         <f t="shared" si="0"/>
         <v>FRI</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C27" s="3">
         <v>43973</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D27" s="2">
         <v>5384</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E27" s="2">
         <v>5033</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F27" s="2">
         <f t="shared" si="1"/>
         <v>10417</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G27" s="1">
         <f t="shared" si="2"/>
         <v>351</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B27" s="6" t="str">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="6" t="str">
         <f t="shared" si="0"/>
         <v>SAT</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C28" s="3">
         <v>43974</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D28" s="2">
         <v>3291</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E28" s="2">
         <v>3062</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F28" s="2">
         <f t="shared" si="1"/>
         <v>6353</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G28" s="1">
         <f t="shared" si="2"/>
         <v>229</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B28" s="6" t="str">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="6" t="str">
         <f t="shared" si="0"/>
         <v>SUN</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C29" s="3">
         <v>43975</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D29" s="2">
         <v>3973</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E29" s="2">
         <v>3614</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F29" s="2">
         <f t="shared" si="1"/>
         <v>7587</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G29" s="1">
         <f t="shared" si="2"/>
         <v>359</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B29" s="6" t="str">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="6" t="str">
         <f t="shared" si="0"/>
         <v>MON</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C30" s="3">
         <v>43976</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D30" s="2">
         <v>4096</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E30" s="2">
         <v>3936</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F30" s="2">
         <f t="shared" si="1"/>
         <v>8032</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G30" s="1">
         <f t="shared" si="2"/>
         <v>160</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B30" s="6" t="str">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="6" t="str">
         <f t="shared" si="0"/>
         <v>TUE</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C31" s="3">
         <v>43977</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D31" s="2">
         <v>5704</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E31" s="2">
         <v>5518</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F31" s="2">
         <f t="shared" si="1"/>
         <v>11222</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G31" s="1">
         <f t="shared" si="2"/>
         <v>186</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B31" s="6" t="str">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="6" t="str">
         <f t="shared" si="0"/>
         <v>WED</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C32" s="3">
         <v>43978</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D32" s="2">
         <v>6056</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E32" s="2">
         <v>5690</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F32" s="2">
         <f t="shared" si="1"/>
         <v>11746</v>
       </c>
-      <c r="G31" s="1">
+      <c r="G32" s="1">
         <f t="shared" si="2"/>
         <v>366</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B32" s="6" t="str">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="6" t="str">
         <f t="shared" si="0"/>
         <v>THU</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C33" s="3">
         <v>43979</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D33" s="2">
         <v>5610</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E33" s="2">
         <v>5290</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F33" s="2">
         <f t="shared" si="1"/>
         <v>10900</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G33" s="1">
         <f t="shared" si="2"/>
         <v>320</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B33" s="6" t="str">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="6" t="str">
         <f t="shared" si="0"/>
         <v>FRI</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C34" s="3">
         <v>43980</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D34" s="2">
         <v>5650</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E34" s="2">
         <v>5384</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F34" s="2">
         <f t="shared" si="1"/>
         <v>11034</v>
       </c>
-      <c r="G33" s="1">
+      <c r="G34" s="1">
         <f t="shared" si="2"/>
         <v>266</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B34" s="6" t="str">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="6" t="str">
         <f t="shared" si="0"/>
         <v>SAT</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C35" s="3">
         <v>43981</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D35" s="2">
         <v>4396</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E35" s="2">
         <v>4011</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F35" s="2">
         <f t="shared" si="1"/>
         <v>8407</v>
       </c>
-      <c r="G34" s="1">
+      <c r="G35" s="1">
         <f t="shared" si="2"/>
         <v>385</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B35" s="8" t="str">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="8" t="str">
         <f t="shared" si="0"/>
         <v>SUN</v>
       </c>
-      <c r="C35" s="9">
+      <c r="C36" s="9">
         <v>43982</v>
       </c>
-      <c r="D35" s="10">
+      <c r="D36" s="10">
         <v>4037</v>
       </c>
-      <c r="E35" s="10">
+      <c r="E36" s="10">
         <v>3693</v>
       </c>
-      <c r="F35" s="10">
+      <c r="F36" s="10">
         <f t="shared" si="1"/>
         <v>7730</v>
       </c>
-      <c r="G35" s="1">
+      <c r="G36" s="1">
         <f t="shared" si="2"/>
         <v>344</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B36" s="22" t="s">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C37" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="22"/>
-      <c r="D36" s="13">
-        <f>SUM(D5:D35)</f>
+      <c r="D37" s="13">
+        <f>SUM(D6:D36)</f>
         <v>138376</v>
       </c>
-      <c r="E36" s="13">
-        <f>SUM(E5:E35)</f>
+      <c r="E37" s="13">
+        <f>SUM(E6:E36)</f>
         <v>132061</v>
       </c>
-      <c r="F36" s="13">
+      <c r="F37" s="13">
         <f t="shared" si="1"/>
         <v>270437</v>
       </c>
     </row>
-    <row r="39" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="40" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="20" t="s">
+    <row r="40" spans="2:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="2:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="16">
-        <f>F36</f>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="16">
+        <f>F37</f>
         <v>270437</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B36:C36"/>
+  <mergeCells count="2">
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B41:D41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="F5:F36" formulaRange="1"/>
+    <ignoredError sqref="F6:F37" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:S48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="12.7109375" style="1"/>
+    <col min="1" max="16384" width="12.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B2" s="28" t="s">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B2" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-    </row>
-    <row r="3" spans="2:18" ht="28.5" x14ac:dyDescent="0.3">
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+    </row>
+    <row r="3" spans="2:18" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
         <v>2</v>
       </c>
@@ -1467,7 +1478,7 @@
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="str">
         <f t="shared" ref="B4:B24" si="0">CHOOSE(WEEKDAY(C4),"SUN","MON","TUE","WED","THU","FRI","SAT")</f>
         <v>FRI</v>
@@ -1492,7 +1503,7 @@
       <c r="M4" s="14"/>
       <c r="N4" s="14"/>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="str">
         <f t="shared" si="0"/>
         <v>MON</v>
@@ -1517,7 +1528,7 @@
       <c r="M5" s="14"/>
       <c r="N5" s="14"/>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="str">
         <f t="shared" si="0"/>
         <v>TUE</v>
@@ -1536,7 +1547,7 @@
         <v>8658</v>
       </c>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="str">
         <f t="shared" si="0"/>
         <v>WED</v>
@@ -1555,7 +1566,7 @@
         <v>8297</v>
       </c>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="str">
         <f t="shared" si="0"/>
         <v>THU</v>
@@ -1574,7 +1585,7 @@
         <v>9242</v>
       </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="str">
         <f t="shared" si="0"/>
         <v>FRI</v>
@@ -1593,7 +1604,7 @@
         <v>8648</v>
       </c>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="str">
         <f t="shared" si="0"/>
         <v>MON</v>
@@ -1612,7 +1623,7 @@
         <v>8676</v>
       </c>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="str">
         <f t="shared" si="0"/>
         <v>TUE</v>
@@ -1631,7 +1642,7 @@
         <v>8907</v>
       </c>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="str">
         <f t="shared" si="0"/>
         <v>WED</v>
@@ -1654,7 +1665,7 @@
       <c r="Q12" s="14"/>
       <c r="R12" s="14"/>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="str">
         <f t="shared" si="0"/>
         <v>THU</v>
@@ -1677,7 +1688,7 @@
       <c r="Q13" s="14"/>
       <c r="R13" s="14"/>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="str">
         <f t="shared" si="0"/>
         <v>FRI</v>
@@ -1700,7 +1711,7 @@
       <c r="Q14" s="14"/>
       <c r="R14" s="14"/>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="str">
         <f t="shared" si="0"/>
         <v>MON</v>
@@ -1719,7 +1730,7 @@
         <v>9724</v>
       </c>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="str">
         <f t="shared" si="0"/>
         <v>TUE</v>
@@ -1738,7 +1749,7 @@
         <v>9938</v>
       </c>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="str">
         <f t="shared" si="0"/>
         <v>WED</v>
@@ -1757,7 +1768,7 @@
         <v>9905</v>
       </c>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="str">
         <f t="shared" si="0"/>
         <v>THU</v>
@@ -1782,7 +1793,7 @@
       <c r="R18" s="14"/>
       <c r="S18" s="14"/>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="str">
         <f t="shared" si="0"/>
         <v>FRI</v>
@@ -1807,7 +1818,7 @@
       <c r="R19" s="14"/>
       <c r="S19" s="14"/>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B20" s="6" t="str">
         <f t="shared" si="0"/>
         <v>MON</v>
@@ -1832,7 +1843,7 @@
       <c r="R20" s="14"/>
       <c r="S20" s="14"/>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="str">
         <f t="shared" si="0"/>
         <v>TUE</v>
@@ -1857,7 +1868,7 @@
       <c r="R21" s="14"/>
       <c r="S21" s="14"/>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="str">
         <f t="shared" si="0"/>
         <v>WED</v>
@@ -1882,7 +1893,7 @@
       <c r="R22" s="14"/>
       <c r="S22" s="14"/>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B23" s="6" t="str">
         <f t="shared" si="0"/>
         <v>THU</v>
@@ -1907,7 +1918,7 @@
       <c r="R23" s="14"/>
       <c r="S23" s="14"/>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="str">
         <f t="shared" si="0"/>
         <v>FRI</v>
@@ -1932,11 +1943,11 @@
       <c r="R24" s="14"/>
       <c r="S24" s="14"/>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B25" s="22" t="s">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B25" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="22"/>
+      <c r="C25" s="23"/>
       <c r="D25" s="13">
         <f>SUM(D4:D24)</f>
         <v>101781</v>
@@ -1956,7 +1967,7 @@
       <c r="R25" s="14"/>
       <c r="S25" s="14"/>
     </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
       <c r="N26" s="14"/>
       <c r="O26" s="14"/>
       <c r="P26" s="15"/>
@@ -1964,13 +1975,13 @@
       <c r="R26" s="14"/>
       <c r="S26" s="14"/>
     </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B27" s="26" t="s">
+    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B27" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="27"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="28"/>
       <c r="F27" s="13">
         <f>F25</f>
         <v>200292</v>
@@ -1982,13 +1993,13 @@
       <c r="R27" s="14"/>
       <c r="S27" s="14"/>
     </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B28" s="26" t="s">
+    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B28" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="27"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="28"/>
       <c r="F28" s="17">
         <f>AVERAGE(F4:F24)</f>
         <v>9537.7142857142862</v>
@@ -2000,7 +2011,7 @@
       <c r="R28" s="14"/>
       <c r="S28" s="14"/>
     </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
       <c r="N29" s="14"/>
       <c r="O29" s="14"/>
       <c r="P29" s="15"/>
@@ -2008,7 +2019,7 @@
       <c r="R29" s="14"/>
       <c r="S29" s="14"/>
     </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
       <c r="N30" s="14"/>
       <c r="O30" s="14"/>
       <c r="P30" s="15"/>
@@ -2016,7 +2027,7 @@
       <c r="R30" s="14"/>
       <c r="S30" s="14"/>
     </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
       <c r="N31" s="14"/>
       <c r="O31" s="14"/>
       <c r="P31" s="15"/>
@@ -2024,14 +2035,14 @@
       <c r="R31" s="14"/>
       <c r="S31" s="14"/>
     </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B32" s="23" t="s">
+    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B32" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="26"/>
       <c r="N32" s="14"/>
       <c r="O32" s="14"/>
       <c r="P32" s="15"/>
@@ -2039,7 +2050,7 @@
       <c r="R32" s="14"/>
       <c r="S32" s="14"/>
     </row>
-    <row r="33" spans="2:19" ht="28.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:19" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B33" s="11" t="s">
         <v>2</v>
       </c>
@@ -2062,7 +2073,7 @@
       <c r="R33" s="14"/>
       <c r="S33" s="14"/>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="str">
         <f t="shared" ref="B34:B43" si="3">CHOOSE(WEEKDAY(C34),"SUN","MON","TUE","WED","THU","FRI","SAT")</f>
         <v>SAT</v>
@@ -2087,7 +2098,7 @@
       <c r="R34" s="14"/>
       <c r="S34" s="14"/>
     </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B35" s="6" t="str">
         <f t="shared" si="3"/>
         <v>SUN</v>
@@ -2112,7 +2123,7 @@
       <c r="R35" s="14"/>
       <c r="S35" s="14"/>
     </row>
-    <row r="36" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B36" s="6" t="str">
         <f t="shared" si="3"/>
         <v>SAT</v>
@@ -2137,7 +2148,7 @@
       <c r="R36" s="14"/>
       <c r="S36" s="14"/>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B37" s="6" t="str">
         <f t="shared" si="3"/>
         <v>SUN</v>
@@ -2162,7 +2173,7 @@
       <c r="R37" s="14"/>
       <c r="S37" s="14"/>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B38" s="6" t="str">
         <f t="shared" si="3"/>
         <v>SAT</v>
@@ -2187,7 +2198,7 @@
       <c r="R38" s="14"/>
       <c r="S38" s="14"/>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B39" s="6" t="str">
         <f t="shared" si="3"/>
         <v>SUN</v>
@@ -2212,7 +2223,7 @@
       <c r="R39" s="14"/>
       <c r="S39" s="14"/>
     </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B40" s="6" t="str">
         <f t="shared" si="3"/>
         <v>SAT</v>
@@ -2237,7 +2248,7 @@
       <c r="R40" s="14"/>
       <c r="S40" s="14"/>
     </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B41" s="6" t="str">
         <f t="shared" si="3"/>
         <v>SUN</v>
@@ -2262,7 +2273,7 @@
       <c r="R41" s="14"/>
       <c r="S41" s="14"/>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B42" s="6" t="str">
         <f t="shared" si="3"/>
         <v>SAT</v>
@@ -2287,7 +2298,7 @@
       <c r="R42" s="14"/>
       <c r="S42" s="14"/>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B43" s="6" t="str">
         <f t="shared" si="3"/>
         <v>SUN</v>
@@ -2312,11 +2323,11 @@
       <c r="R43" s="14"/>
       <c r="S43" s="14"/>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B44" s="26" t="s">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B44" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C44" s="27"/>
+      <c r="C44" s="28"/>
       <c r="D44" s="13">
         <f>SUM(D34:D43)</f>
         <v>36595</v>
@@ -2336,7 +2347,7 @@
       <c r="R44" s="14"/>
       <c r="S44" s="14"/>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.25">
       <c r="N45" s="14"/>
       <c r="O45" s="14"/>
       <c r="P45" s="15"/>
@@ -2344,13 +2355,13 @@
       <c r="R45" s="14"/>
       <c r="S45" s="14"/>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B46" s="22" t="s">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B46" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
       <c r="F46" s="13">
         <f>AVERAGE(F34,F36,F38,F40,F42)</f>
         <v>7183.2</v>
@@ -2362,13 +2373,13 @@
       <c r="R46" s="14"/>
       <c r="S46" s="14"/>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B47" s="22" t="s">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B47" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
       <c r="F47" s="17">
         <f>AVERAGE(F35,F37,F39,F41,F43)</f>
         <v>6845.8</v>
@@ -2380,7 +2391,7 @@
       <c r="R47" s="14"/>
       <c r="S47" s="14"/>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.25">
       <c r="N48" s="14"/>
       <c r="O48" s="14"/>
       <c r="P48" s="14"/>
@@ -2407,6 +2418,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010056AE8379B00F7343AA85C9CCF3ABC79C" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8ed5a08c4ea4bafe7608c7a0bbf74949">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="670d3029-f9df-404e-98fc-7004dcdec636" xmlns:ns3="5f7ac3ca-9ce0-489a-bc70-1e3f2f642f01" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f6b6dc1f77d7f192bee01dd38b44bce" ns2:_="" ns3:_="">
     <xsd:import namespace="670d3029-f9df-404e-98fc-7004dcdec636"/>
@@ -2585,29 +2611,38 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE079319-FBDD-445C-B239-D0EF35456387}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CA89D13-1484-4D14-9B9F-1E4A79F98F51}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE6DAF5D-F99D-4C5D-8625-35C088C9557E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE6DAF5D-F99D-4C5D-8625-35C088C9557E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CA89D13-1484-4D14-9B9F-1E4A79F98F51}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE079319-FBDD-445C-B239-D0EF35456387}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="670d3029-f9df-404e-98fc-7004dcdec636"/>
+    <ds:schemaRef ds:uri="5f7ac3ca-9ce0-489a-bc70-1e3f2f642f01"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>